--- a/rhla_analysis/rhla1_3_zipf_result/k8.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k8.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1214938401143442</v>
+        <v>0.1214938401143437</v>
       </c>
       <c r="B2" t="n">
         <v>14.70934767951026</v>
@@ -466,12 +466,12 @@
         <v>0.1453537936913896</v>
       </c>
       <c r="D2" t="n">
-        <v>121.070728076967</v>
+        <v>121.0707280769674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.865340103607284</v>
+        <v>1.865340103607289</v>
       </c>
       <c r="B3" t="n">
         <v>94.99539727491245</v>
@@ -480,26 +480,26 @@
         <v>0.1364023870417732</v>
       </c>
       <c r="D3" t="n">
-        <v>50.92658282058365</v>
+        <v>50.92658282058352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1547087275467194</v>
+        <v>0.1547087275467199</v>
       </c>
       <c r="B4" t="n">
-        <v>17.64912718557017</v>
+        <v>17.64912718557016</v>
       </c>
       <c r="C4" t="n">
         <v>0.1453537936913896</v>
       </c>
       <c r="D4" t="n">
-        <v>114.0797126667623</v>
+        <v>114.0797126667619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5721084246753378</v>
+        <v>0.572108424675337</v>
       </c>
       <c r="B5" t="n">
         <v>54.01470296245244</v>
@@ -508,12 +508,12 @@
         <v>0.1402387041773231</v>
       </c>
       <c r="D5" t="n">
-        <v>94.41340248241389</v>
+        <v>94.41340248241403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.543312406277751</v>
+        <v>7.543312406277706</v>
       </c>
       <c r="B6" t="n">
         <v>769.0235453013868</v>
@@ -522,12 +522,12 @@
         <v>0.1423699914748508</v>
       </c>
       <c r="D6" t="n">
-        <v>101.9477258639566</v>
+        <v>101.9477258639572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.317865981036857</v>
+        <v>5.317865981036879</v>
       </c>
       <c r="B7" t="n">
         <v>84.839061287264</v>
@@ -536,12 +536,12 @@
         <v>0.1368286445012788</v>
       </c>
       <c r="D7" t="n">
-        <v>15.95359145751214</v>
+        <v>15.95359145751207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7127456247393279</v>
+        <v>0.7127456247393409</v>
       </c>
       <c r="B8" t="n">
         <v>47.19359358164768</v>
@@ -550,12 +550,12 @@
         <v>0.1517476555839727</v>
       </c>
       <c r="D8" t="n">
-        <v>66.21379625993183</v>
+        <v>66.2137962599306</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4584822151997021</v>
+        <v>0.4584822151996997</v>
       </c>
       <c r="B9" t="n">
         <v>55.11357036712876</v>
@@ -564,12 +564,12 @@
         <v>0.1453537936913896</v>
       </c>
       <c r="D9" t="n">
-        <v>120.2087421060004</v>
+        <v>120.208742106001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1166401749132737</v>
+        <v>0.1166401749132703</v>
       </c>
       <c r="B10" t="n">
         <v>18.62166495677548</v>
@@ -578,12 +578,12 @@
         <v>0.1491901108269395</v>
       </c>
       <c r="D10" t="n">
-        <v>159.6505232491411</v>
+        <v>159.6505232491457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9852181911382497</v>
+        <v>0.9852181911382456</v>
       </c>
       <c r="B11" t="n">
         <v>59.61605522059151</v>
@@ -592,7 +592,7 @@
         <v>0.1504688832054561</v>
       </c>
       <c r="D11" t="n">
-        <v>60.51051001374167</v>
+        <v>60.51051001374192</v>
       </c>
     </row>
   </sheetData>
